--- a/data/trans_orig/EXP_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EXP_TABACO-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en País Vasco</t>
+          <t>Exposición pasiva al tabaco en la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Andalucia</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Andalucia (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en C.Valenciana</t>
+          <t>Exposición pasiva al tabaco en la vivienda en C.Valenciana (tasa de respuesta: 93,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Barcelona</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EXP_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EXP_TABACO-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>7640</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2263</t>
+          <t>4409</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5451</t>
+          <t>12452</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4481</t>
+          <t>14551</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>9059</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6326</t>
+          <t>23233</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8156</t>
+          <t>22191</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>15556</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10555</t>
+          <t>31465</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>22,36%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21826</t>
+          <t>61627</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20051</t>
+          <t>56815</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>64858</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19113</t>
+          <t>56875</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17268</t>
+          <t>48193</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20621</t>
+          <t>62367</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>73,19%</t>
+          <t>67,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>40939</t>
+          <t>118501</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>38540</t>
+          <t>109227</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>43151</t>
+          <t>125136</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>83,39%</t>
+          <t>84,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>77,64%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>88,94%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4708</t>
+          <t>12965</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3171</t>
+          <t>8160</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6670</t>
+          <t>19896</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5374</t>
+          <t>14606</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3667</t>
+          <t>9455</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7590</t>
+          <t>21571</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10083</t>
+          <t>27571</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>7715</t>
+          <t>19997</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12786</t>
+          <t>36504</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,02%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24161</t>
+          <t>78219</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22199</t>
+          <t>71288</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25698</t>
+          <t>83024</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,69%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26841</t>
+          <t>76550</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>24625</t>
+          <t>69585</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>28548</t>
+          <t>81701</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>83,32%</t>
+          <t>83,98%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>76,44%</t>
+          <t>76,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>51001</t>
+          <t>154770</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>48298</t>
+          <t>145837</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>53369</t>
+          <t>162344</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>83,49%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>89,03%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>26823</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6936</t>
+          <t>20494</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11594</t>
+          <t>34415</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7572</t>
+          <t>16011</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5434</t>
+          <t>11127</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10156</t>
+          <t>21806</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>16401</t>
+          <t>42835</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>13266</t>
+          <t>35153</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19634</t>
+          <t>52157</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>20,48%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38224</t>
+          <t>101813</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35459</t>
+          <t>94221</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40117</t>
+          <t>108142</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,24%</t>
+          <t>79,15%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,36%</t>
+          <t>73,25%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,26%</t>
+          <t>84,07%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43744</t>
+          <t>110080</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41160</t>
+          <t>104285</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45882</t>
+          <t>114964</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>80,21%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>81968</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>78735</t>
+          <t>202570</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>85103</t>
+          <t>219574</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>83,33%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>80,04%</t>
+          <t>79,52%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>86,2%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12174</t>
+          <t>23958</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9628</t>
+          <t>17936</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15618</t>
+          <t>30617</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12591</t>
+          <t>24723</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>18991</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15369</t>
+          <t>31382</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>24765</t>
+          <t>48681</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20650</t>
+          <t>40324</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>29151</t>
+          <t>57665</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>19,08%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>59825</t>
+          <t>127466</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>56381</t>
+          <t>120807</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62371</t>
+          <t>133488</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>60985</t>
+          <t>126122</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>58207</t>
+          <t>119463</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>63734</t>
+          <t>131854</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,89%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>120810</t>
+          <t>253588</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>116424</t>
+          <t>244604</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>124925</t>
+          <t>261945</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>86,66%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11326</t>
+          <t>18715</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8768</t>
+          <t>13586</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14141</t>
+          <t>23872</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12220</t>
+          <t>15966</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>11932</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15776</t>
+          <t>21206</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>23547</t>
+          <t>34681</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>19869</t>
+          <t>29095</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>27846</t>
+          <t>42258</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>15,62%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>56471</t>
+          <t>111141</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53656</t>
+          <t>105984</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59029</t>
+          <t>116270</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,29%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,14%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>69259</t>
+          <t>124640</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>65703</t>
+          <t>119400</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>72056</t>
+          <t>128674</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,0%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>80,64%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>125729</t>
+          <t>235780</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>121430</t>
+          <t>228203</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>129407</t>
+          <t>241366</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>89,24%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5538</t>
+          <t>7410</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3863</t>
+          <t>5045</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7867</t>
+          <t>10508</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6934</t>
+          <t>12192</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5381</t>
+          <t>9203</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9554</t>
+          <t>17015</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>12473</t>
+          <t>19602</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>9880</t>
+          <t>15216</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>15610</t>
+          <t>25025</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,03%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55048</t>
+          <t>88761</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52719</t>
+          <t>85663</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>56723</t>
+          <t>91126</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>87,02%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>61763</t>
+          <t>99569</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>59143</t>
+          <t>94746</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>63316</t>
+          <t>102558</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,91%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,09%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>116810</t>
+          <t>188330</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>113673</t>
+          <t>182907</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>119403</t>
+          <t>192716</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>92,68%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2271</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>2507</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>7595</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>6832</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2070</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5344</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>11144</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3904</t>
+          <t>7903</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>7891</t>
+          <t>16146</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>48243</t>
+          <t>75493</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>46812</t>
+          <t>72210</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>49263</t>
+          <t>77298</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>76977</t>
+          <t>121101</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>75026</t>
+          <t>117215</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>78300</t>
+          <t>123745</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>125220</t>
+          <t>196594</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>122993</t>
+          <t>191592</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>126980</t>
+          <t>199835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>96,2%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3137,32 +3137,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>48523</t>
+          <t>101824</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>43203</t>
+          <t>87747</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>54635</t>
+          <t>116086</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3172,32 +3172,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>52566</t>
+          <t>104880</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>47220</t>
+          <t>91623</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>59144</t>
+          <t>120277</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>101089</t>
+          <t>206705</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>92439</t>
+          <t>188043</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>109761</t>
+          <t>226525</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,46%</t>
         </is>
       </c>
     </row>
@@ -3250,32 +3250,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>303797</t>
+          <t>644519</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>297685</t>
+          <t>630257</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>309117</t>
+          <t>658596</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>84,49%</t>
+          <t>84,45%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>88,24%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3285,32 +3285,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>358680</t>
+          <t>714938</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>352102</t>
+          <t>699541</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>364026</t>
+          <t>728195</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3320,32 +3320,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>662477</t>
+          <t>1359456</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>653805</t>
+          <t>1339636</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>671127</t>
+          <t>1378118</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>85,54%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>87,99%</t>
         </is>
       </c>
     </row>
@@ -3363,17 +3363,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32432</t>
+          <t>32578</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>78932</t>
+          <t>76036</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28819</t>
+          <t>28194</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>63445</t>
+          <t>62503</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>71327</t>
+          <t>70521</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>128407</t>
+          <t>129515</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>32,13%</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>148386</t>
+          <t>151282</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>194886</t>
+          <t>194740</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,28%</t>
+          <t>66,55%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,73%</t>
+          <t>85,67%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3876,12 +3876,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>112342</t>
+          <t>113284</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>146968</t>
+          <t>147593</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>63,91%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>274699</t>
+          <t>273591</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>331779</t>
+          <t>332585</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>68,15%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>82,51%</t>
         </is>
       </c>
     </row>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28165</t>
+          <t>28938</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60916</t>
+          <t>61423</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22722</t>
+          <t>19329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72029</t>
+          <t>71230</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>58074</t>
+          <t>55816</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>120512</t>
+          <t>117756</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>22,39%</t>
         </is>
       </c>
     </row>
@@ -4184,12 +4184,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>156874</t>
+          <t>156367</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>189625</t>
+          <t>188852</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>71,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>236035</t>
+          <t>236834</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>285342</t>
+          <t>288735</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>405342</t>
+          <t>408098</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>467780</t>
+          <t>470038</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>77,61%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>88,96%</t>
+          <t>89,39%</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23810</t>
+          <t>23055</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47086</t>
+          <t>45079</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37621</t>
+          <t>37638</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>59181</t>
+          <t>59435</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>68434</t>
+          <t>67105</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>99188</t>
+          <t>98565</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,5%</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>239613</t>
+          <t>241620</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>262889</t>
+          <t>263644</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>84,28%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>251457</t>
+          <t>251203</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>273017</t>
+          <t>273000</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4597,12 +4597,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>498149</t>
+          <t>498772</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>528903</t>
+          <t>530232</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>83,39%</t>
+          <t>83,5%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>88,77%</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>58722</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>473225</t>
+          <t>453425</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,79%</t>
+          <t>77,41%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50151</t>
+          <t>50644</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>72629</t>
+          <t>73411</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>126288</t>
+          <t>124149</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>687112</t>
+          <t>662714</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>67,65%</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>112491</t>
+          <t>132291</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>524578</t>
+          <t>526994</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>321242</t>
+          <t>320460</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>343720</t>
+          <t>343227</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>81,36%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>87,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>292475</t>
+          <t>316873</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>853299</t>
+          <t>855438</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,11%</t>
+          <t>87,33%</t>
         </is>
       </c>
     </row>
@@ -5100,12 +5100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35074</t>
+          <t>35367</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>59275</t>
+          <t>58986</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30275</t>
+          <t>30744</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>47409</t>
+          <t>48186</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>70314</t>
+          <t>71708</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>99170</t>
+          <t>99586</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5185,12 +5185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,46%</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>256194</t>
+          <t>256483</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>280395</t>
+          <t>280102</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>81,3%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>242269</t>
+          <t>241492</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>259403</t>
+          <t>258934</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,63%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>505977</t>
+          <t>505561</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>534833</t>
+          <t>533439</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>83,54%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>88,15%</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7596</t>
+          <t>7344</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18476</t>
+          <t>18276</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5458,12 +5458,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6817</t>
+          <t>6887</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>49859</t>
+          <t>51061</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>13144</t>
+          <t>14286</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>57750</t>
+          <t>59236</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>167467</t>
+          <t>167667</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>178347</t>
+          <t>178599</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>363495</t>
+          <t>362293</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>406537</t>
+          <t>406467</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>541546</t>
+          <t>540060</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>586152</t>
+          <t>585010</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>97,62%</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4819</t>
+          <t>4556</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7162</t>
+          <t>7154</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>16764</t>
+          <t>17423</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>8342</t>
+          <t>7958</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>18918</t>
+          <t>18630</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>125156</t>
+          <t>125419</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>158400</t>
+          <t>157741</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>168010</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>286221</t>
+          <t>286509</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>296797</t>
+          <t>297181</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>97,39%</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>245565</t>
+          <t>245006</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>988746</t>
+          <t>986895</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>209623</t>
+          <t>188181</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>326838</t>
+          <t>321793</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>513001</t>
+          <t>508604</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1467693</t>
+          <t>1401507</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>34,9%</t>
         </is>
       </c>
     </row>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>960163</t>
+          <t>962014</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1703344</t>
+          <t>1703903</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>49,36%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1739717</t>
+          <t>1744762</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1856932</t>
+          <t>1878374</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>84,43%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2547772</t>
+          <t>2613958</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3502464</t>
+          <t>3506861</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6327,12 +6327,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>65,1%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>87,33%</t>
         </is>
       </c>
     </row>
@@ -9702,12 +9702,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19338</t>
+          <t>19106</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29730</t>
+          <t>29883</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>48,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17198</t>
+          <t>17584</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27559</t>
+          <t>27077</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>38763</t>
+          <t>39779</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>53264</t>
+          <t>53722</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>44,56%</t>
         </is>
       </c>
     </row>
@@ -9815,12 +9815,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31468</t>
+          <t>31315</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41860</t>
+          <t>42092</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>51,17%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>68,4%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31809</t>
+          <t>32291</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42170</t>
+          <t>41784</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9865,12 +9865,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>71,03%</t>
+          <t>70,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9885,12 +9885,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>67303</t>
+          <t>66845</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>81804</t>
+          <t>80788</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>55,44%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>67,01%</t>
         </is>
       </c>
     </row>
@@ -10045,12 +10045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37438</t>
+          <t>36844</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52016</t>
+          <t>52212</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24831</t>
+          <t>24730</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39288</t>
+          <t>38759</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>64900</t>
+          <t>65662</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>86746</t>
+          <t>87461</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>36,04%</t>
         </is>
       </c>
     </row>
@@ -10158,12 +10158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66750</t>
+          <t>66554</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81328</t>
+          <t>81922</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>68,48%</t>
+          <t>68,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>84641</t>
+          <t>85170</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>99098</t>
+          <t>99199</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>68,3%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>80,05%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -10228,12 +10228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>155949</t>
+          <t>155234</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>177795</t>
+          <t>177033</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>64,26%</t>
+          <t>63,96%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>73,26%</t>
+          <t>72,94%</t>
         </is>
       </c>
     </row>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31511</t>
+          <t>31964</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47950</t>
+          <t>47662</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -10423,12 +10423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21342</t>
+          <t>21613</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34823</t>
+          <t>35157</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>56000</t>
+          <t>55966</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>77296</t>
+          <t>76623</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>28,95%</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86250</t>
+          <t>86538</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>102689</t>
+          <t>102236</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,52%</t>
+          <t>76,18%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95668</t>
+          <t>95334</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109149</t>
+          <t>108878</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>73,31%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>83,64%</t>
+          <t>83,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10571,12 +10571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>187395</t>
+          <t>188068</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>208691</t>
+          <t>208725</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>71,05%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>78,84%</t>
+          <t>78,86%</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14604</t>
+          <t>14548</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27042</t>
+          <t>27207</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10746,12 +10746,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19044</t>
+          <t>19142</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31137</t>
+          <t>31546</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>36227</t>
+          <t>36129</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>52969</t>
+          <t>54254</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>23,42%</t>
         </is>
       </c>
     </row>
@@ -10844,12 +10844,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>85390</t>
+          <t>85225</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97828</t>
+          <t>97884</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,95%</t>
+          <t>75,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,01%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>88063</t>
+          <t>87654</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>100156</t>
+          <t>100058</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>73,88%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>84,02%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10914,12 +10914,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>178663</t>
+          <t>177378</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>195405</t>
+          <t>195503</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10929,12 +10929,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>77,13%</t>
+          <t>76,58%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>84,4%</t>
         </is>
       </c>
     </row>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15657</t>
+          <t>15870</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28610</t>
+          <t>27778</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25859</t>
+          <t>26269</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39489</t>
+          <t>39701</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>45955</t>
+          <t>45215</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>64044</t>
+          <t>63557</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>31,41%</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61781</t>
+          <t>62613</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74734</t>
+          <t>74521</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11202,12 +11202,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>82,68%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11222,12 +11222,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>72479</t>
+          <t>72267</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>86109</t>
+          <t>85699</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11237,12 +11237,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>76,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>138316</t>
+          <t>138803</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>156405</t>
+          <t>157145</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>68,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>77,29%</t>
+          <t>77,66%</t>
         </is>
       </c>
     </row>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8912</t>
+          <t>8603</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19281</t>
+          <t>19803</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10503</t>
+          <t>9904</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21322</t>
+          <t>20407</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11487,12 +11487,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>21328</t>
+          <t>20975</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>35598</t>
+          <t>35870</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>23,83%</t>
         </is>
       </c>
     </row>
@@ -11530,12 +11530,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>47230</t>
+          <t>46708</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>57599</t>
+          <t>57908</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11545,12 +11545,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>70,23%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>62664</t>
+          <t>63579</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>73483</t>
+          <t>74082</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11600,12 +11600,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>114899</t>
+          <t>114627</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>129169</t>
+          <t>129522</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>86,06%</t>
         </is>
       </c>
     </row>
@@ -11760,12 +11760,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3932</t>
+          <t>3691</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12075</t>
+          <t>11426</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5396</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>14264</t>
+          <t>14220</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10895</t>
+          <t>10532</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>22995</t>
+          <t>21623</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>16,21%</t>
         </is>
       </c>
     </row>
@@ -11873,12 +11873,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>42741</t>
+          <t>43390</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>50884</t>
+          <t>51125</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11888,12 +11888,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>77,97%</t>
+          <t>79,16%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>64276</t>
+          <t>64320</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>73144</t>
+          <t>73354</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,84%</t>
+          <t>81,9%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>110361</t>
+          <t>111733</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>122461</t>
+          <t>122824</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>92,1%</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>153453</t>
+          <t>152724</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>186243</t>
+          <t>186597</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>144461</t>
+          <t>144383</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>176701</t>
+          <t>178139</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>307890</t>
+          <t>309511</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>355285</t>
+          <t>354721</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>26,36%</t>
         </is>
       </c>
     </row>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>452072</t>
+          <t>451718</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>484862</t>
+          <t>485591</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>70,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>75,96%</t>
+          <t>76,07%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>530781</t>
+          <t>529343</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>563021</t>
+          <t>563099</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>74,82%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>79,58%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>990513</t>
+          <t>991077</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1037908</t>
+          <t>1036287</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12301,12 +12301,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>77,0%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EXP_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EXP_TABACO-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Andalucia (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7640</t>
+          <t>54445</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4409</t>
+          <t>34986</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12452</t>
+          <t>75795</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14551</t>
+          <t>45228</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9059</t>
+          <t>30676</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23233</t>
+          <t>65445</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>22191</t>
+          <t>99672</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>15556</t>
+          <t>75943</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>31465</t>
+          <t>133608</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>30,25%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61627</t>
+          <t>177495</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56815</t>
+          <t>156145</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64858</t>
+          <t>196954</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56875</t>
+          <t>164554</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48193</t>
+          <t>144337</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62367</t>
+          <t>179106</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>79,63%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,32%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>160</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>118501</t>
+          <t>342049</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>109227</t>
+          <t>308113</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125136</t>
+          <t>365778</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>77,44%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>77,64%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>82,81%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69267</t>
+          <t>231940</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69267</t>
+          <t>231940</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>69267</t>
+          <t>231940</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>71426</t>
+          <t>209782</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>71426</t>
+          <t>209782</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>71426</t>
+          <t>209782</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>202</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>140692</t>
+          <t>441721</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>140692</t>
+          <t>441721</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>140692</t>
+          <t>441721</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12965</t>
+          <t>49155</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8160</t>
+          <t>34863</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19896</t>
+          <t>69012</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14606</t>
+          <t>50091</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9455</t>
+          <t>37826</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21571</t>
+          <t>64705</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>27571</t>
+          <t>99246</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>19997</t>
+          <t>79174</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>36504</t>
+          <t>123831</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78219</t>
+          <t>198802</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71288</t>
+          <t>178945</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83024</t>
+          <t>213094</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,18%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>199</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76550</t>
+          <t>225011</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69585</t>
+          <t>210397</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>81701</t>
+          <t>237276</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>76,34%</t>
+          <t>76,48%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>315</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>154770</t>
+          <t>423813</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>145837</t>
+          <t>399228</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>162344</t>
+          <t>443885</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>84,88%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>84,86%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91184</t>
+          <t>247957</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91184</t>
+          <t>247957</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91184</t>
+          <t>247957</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91156</t>
+          <t>275102</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91156</t>
+          <t>275102</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91156</t>
+          <t>275102</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>386</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>182341</t>
+          <t>523059</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>182341</t>
+          <t>523059</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>182341</t>
+          <t>523059</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26823</t>
+          <t>35963</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20494</t>
+          <t>24599</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34415</t>
+          <t>48332</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16011</t>
+          <t>53618</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11127</t>
+          <t>42567</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21806</t>
+          <t>66119</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>102</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>42835</t>
+          <t>89581</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>35153</t>
+          <t>74015</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>52157</t>
+          <t>107110</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>15,39%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>101813</t>
+          <t>299218</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94221</t>
+          <t>286849</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>108142</t>
+          <t>310582</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,15%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,07%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110080</t>
+          <t>307359</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>104285</t>
+          <t>294858</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>114964</t>
+          <t>318410</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>85,15%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>81,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>661</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>606577</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>202570</t>
+          <t>589048</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>219574</t>
+          <t>622143</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>83,18%</t>
+          <t>87,13%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>79,52%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>86,2%</t>
+          <t>89,37%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>128636</t>
+          <t>335181</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>128636</t>
+          <t>335181</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>128636</t>
+          <t>335181</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>477</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>126091</t>
+          <t>360977</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>126091</t>
+          <t>360977</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>126091</t>
+          <t>360977</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>763</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>254727</t>
+          <t>696158</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>254727</t>
+          <t>696158</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>254727</t>
+          <t>696158</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23958</t>
+          <t>42394</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17936</t>
+          <t>30184</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30617</t>
+          <t>55692</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24723</t>
+          <t>66926</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18991</t>
+          <t>55778</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31382</t>
+          <t>79914</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>48681</t>
+          <t>109320</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>40324</t>
+          <t>91418</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>57665</t>
+          <t>126968</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>15,68%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>127466</t>
+          <t>337079</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>120807</t>
+          <t>323781</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>133488</t>
+          <t>349289</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>540</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>126122</t>
+          <t>363189</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>119463</t>
+          <t>350201</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>131854</t>
+          <t>374337</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>84,44%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>81,42%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>850</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>253588</t>
+          <t>700268</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>244604</t>
+          <t>682620</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>261945</t>
+          <t>718170</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>86,5%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>84,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>88,71%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>151424</t>
+          <t>379473</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>151424</t>
+          <t>379473</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>151424</t>
+          <t>379473</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>643</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>150845</t>
+          <t>430115</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>150845</t>
+          <t>430115</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>150845</t>
+          <t>430115</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>992</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>302269</t>
+          <t>809588</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>302269</t>
+          <t>809588</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>302269</t>
+          <t>809588</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18715</t>
+          <t>47561</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13586</t>
+          <t>36766</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23872</t>
+          <t>61037</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15966</t>
+          <t>42803</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11932</t>
+          <t>34241</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21206</t>
+          <t>52716</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>122</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>34681</t>
+          <t>90364</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>29095</t>
+          <t>76062</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>42258</t>
+          <t>105835</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>15,89%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>111141</t>
+          <t>292331</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>105984</t>
+          <t>278855</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>116270</t>
+          <t>303126</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>86,01%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>89,18%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>445</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>124640</t>
+          <t>283454</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>119400</t>
+          <t>273541</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>128674</t>
+          <t>292016</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>760</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>235780</t>
+          <t>575785</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>228203</t>
+          <t>560314</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>241366</t>
+          <t>590087</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>87,18%</t>
+          <t>86,43%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>84,11%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>88,58%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129856</t>
+          <t>339892</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129856</t>
+          <t>339892</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129856</t>
+          <t>339892</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>514</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>140606</t>
+          <t>326257</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>140606</t>
+          <t>326257</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>140606</t>
+          <t>326257</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>882</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>270461</t>
+          <t>666149</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>270461</t>
+          <t>666149</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>270461</t>
+          <t>666149</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7410</t>
+          <t>12903</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5045</t>
+          <t>7875</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10508</t>
+          <t>19577</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12192</t>
+          <t>26227</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9203</t>
+          <t>19226</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17015</t>
+          <t>33930</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>19602</t>
+          <t>39130</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>15216</t>
+          <t>31023</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>25025</t>
+          <t>49875</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>11,51%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>88761</t>
+          <t>193635</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>85663</t>
+          <t>186961</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>91126</t>
+          <t>198663</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>358</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>99569</t>
+          <t>200710</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>94746</t>
+          <t>193007</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>102558</t>
+          <t>207711</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,78%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>621</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>188330</t>
+          <t>394346</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>182907</t>
+          <t>383601</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>192716</t>
+          <t>402453</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,84%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>96171</t>
+          <t>206538</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>96171</t>
+          <t>206538</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>96171</t>
+          <t>206538</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>404</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>111761</t>
+          <t>226937</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>111761</t>
+          <t>226937</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>111761</t>
+          <t>226937</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>685</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>207932</t>
+          <t>433476</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>207932</t>
+          <t>433476</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>207932</t>
+          <t>433476</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,37 +2789,37 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4312</t>
+          <t>1453</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7595</t>
+          <t>4925</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,67 +2829,67 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>6832</t>
+          <t>12745</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>8169</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>10718</t>
+          <t>19953</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>11144</t>
+          <t>14198</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>7903</t>
+          <t>9135</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>16146</t>
+          <t>21104</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>75493</t>
+          <t>140729</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>72210</t>
+          <t>137257</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77298</t>
+          <t>142182</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>309</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>121101</t>
+          <t>179486</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>117215</t>
+          <t>172278</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>123745</t>
+          <t>184062</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>506</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>196594</t>
+          <t>320216</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>191592</t>
+          <t>313310</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>199835</t>
+          <t>325279</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>79805</t>
+          <t>142182</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>79805</t>
+          <t>142182</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>79805</t>
+          <t>142182</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>330</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>127933</t>
+          <t>192231</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>127933</t>
+          <t>192231</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>127933</t>
+          <t>192231</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>529</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>207738</t>
+          <t>334414</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>207738</t>
+          <t>334414</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>207738</t>
+          <t>334414</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3132,107 +3132,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>101824</t>
+          <t>243873</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>87747</t>
+          <t>209812</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>116086</t>
+          <t>283955</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>375</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>104880</t>
+          <t>297638</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>91623</t>
+          <t>269856</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>120277</t>
+          <t>333709</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>566</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>206705</t>
+          <t>541512</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>188043</t>
+          <t>495434</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>226525</t>
+          <t>591027</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>15,14%</t>
         </is>
       </c>
     </row>
@@ -3245,107 +3245,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>644519</t>
+          <t>1639291</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>630257</t>
+          <t>1599209</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>658596</t>
+          <t>1673352</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>87,05%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>84,45%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>88,24%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2140</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>714938</t>
+          <t>1723763</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>699541</t>
+          <t>1687692</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>728195</t>
+          <t>1751545</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>85,33%</t>
+          <t>83,49%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3947</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1359456</t>
+          <t>3363054</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1339636</t>
+          <t>3313539</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1378118</t>
+          <t>3409132</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>87,99%</t>
+          <t>87,31%</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>746343</t>
+          <t>1883164</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>746343</t>
+          <t>1883164</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>746343</t>
+          <t>1883164</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2021401</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2021401</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2021401</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3428,22 +3428,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1566161</t>
+          <t>3904566</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1566161</t>
+          <t>3904566</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1566161</t>
+          <t>3904566</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Andalucia (tasa de respuesta: 99,87%)</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3718,107 +3718,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>53569</t>
+          <t>24318</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32578</t>
+          <t>19106</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>76036</t>
+          <t>29883</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,45%</t>
+          <t>48,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43368</t>
+          <t>22074</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28194</t>
+          <t>17584</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62503</t>
+          <t>27077</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>118</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>96937</t>
+          <t>46392</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>70521</t>
+          <t>39779</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>129515</t>
+          <t>53722</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>44,56%</t>
         </is>
       </c>
     </row>
@@ -3831,107 +3831,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>173749</t>
+          <t>36880</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>151282</t>
+          <t>31315</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>194740</t>
+          <t>42092</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,55%</t>
+          <t>51,17%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,67%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>132419</t>
+          <t>37294</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>113284</t>
+          <t>32291</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>147593</t>
+          <t>41784</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,33%</t>
+          <t>62,82%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>64,44%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>70,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>185</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>306169</t>
+          <t>74175</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>273591</t>
+          <t>66845</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>332585</t>
+          <t>80788</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>75,95%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>55,44%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>67,01%</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>227318</t>
+          <t>61198</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227318</t>
+          <t>61198</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>227318</t>
+          <t>61198</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>175787</t>
+          <t>59368</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>175787</t>
+          <t>59368</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>175787</t>
+          <t>59368</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>303</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>403106</t>
+          <t>120567</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>403106</t>
+          <t>120567</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>403106</t>
+          <t>120567</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4061,107 +4061,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42154</t>
+          <t>44687</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28938</t>
+          <t>36844</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61423</t>
+          <t>52212</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50132</t>
+          <t>31096</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19329</t>
+          <t>24730</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71230</t>
+          <t>38759</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>165</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>92286</t>
+          <t>75783</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>55816</t>
+          <t>65662</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>117756</t>
+          <t>87461</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>36,04%</t>
         </is>
       </c>
     </row>
@@ -4174,107 +4174,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>175636</t>
+          <t>74079</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>156367</t>
+          <t>66554</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>188852</t>
+          <t>81922</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80,64%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>68,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>208</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>257932</t>
+          <t>92833</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>236834</t>
+          <t>85170</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>288735</t>
+          <t>99199</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>83,73%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>76,88%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>80,05%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>377</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>433568</t>
+          <t>166912</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>408098</t>
+          <t>155234</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>470038</t>
+          <t>177033</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>82,45%</t>
+          <t>68,77%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>63,96%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>72,94%</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>217790</t>
+          <t>118766</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>217790</t>
+          <t>118766</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>217790</t>
+          <t>118766</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4322,22 +4322,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>279</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>308064</t>
+          <t>123929</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>308064</t>
+          <t>123929</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>308064</t>
+          <t>123929</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4357,22 +4357,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>525854</t>
+          <t>242695</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>525854</t>
+          <t>242695</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>525854</t>
+          <t>242695</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4404,107 +4404,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33566</t>
+          <t>38883</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23055</t>
+          <t>31964</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45079</t>
+          <t>47662</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>28,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47799</t>
+          <t>27509</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37638</t>
+          <t>21613</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>59435</t>
+          <t>35157</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>149</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>81364</t>
+          <t>66392</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>67105</t>
+          <t>55966</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>98565</t>
+          <t>76623</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>28,95%</t>
         </is>
       </c>
     </row>
@@ -4517,107 +4517,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>253133</t>
+          <t>95317</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>241620</t>
+          <t>86538</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>263644</t>
+          <t>102236</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>71,03%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>76,18%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>262839</t>
+          <t>102982</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>251203</t>
+          <t>95334</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>273000</t>
+          <t>108878</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>78,92%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>80,87%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>83,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>475</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>515973</t>
+          <t>198299</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>498772</t>
+          <t>188068</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>530232</t>
+          <t>208725</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>86,38%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>83,5%</t>
+          <t>71,05%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>78,86%</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>309</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>286699</t>
+          <t>134200</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>286699</t>
+          <t>134200</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>286699</t>
+          <t>134200</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>310638</t>
+          <t>130491</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>310638</t>
+          <t>130491</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>310638</t>
+          <t>130491</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>624</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>597337</t>
+          <t>264691</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>597337</t>
+          <t>264691</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>597337</t>
+          <t>264691</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4747,107 +4747,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>282638</t>
+          <t>19887</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58722</t>
+          <t>14548</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>453425</t>
+          <t>27207</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,26%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,41%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60732</t>
+          <t>24525</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50644</t>
+          <t>19142</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73411</t>
+          <t>31546</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>110</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>343370</t>
+          <t>44412</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>124149</t>
+          <t>36129</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>662714</t>
+          <t>54254</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>67,65%</t>
+          <t>23,42%</t>
         </is>
       </c>
     </row>
@@ -4860,107 +4860,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>303078</t>
+          <t>92545</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>132291</t>
+          <t>85225</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>526994</t>
+          <t>97884</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>75,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>236</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>333139</t>
+          <t>94675</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>320460</t>
+          <t>87654</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>343227</t>
+          <t>100058</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,58%</t>
+          <t>79,43%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,14%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>463</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>636217</t>
+          <t>187220</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>316873</t>
+          <t>177378</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>855438</t>
+          <t>195503</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>80,83%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>76,58%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>84,4%</t>
         </is>
       </c>
     </row>
@@ -4973,22 +4973,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>585716</t>
+          <t>112432</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>585716</t>
+          <t>112432</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>585716</t>
+          <t>112432</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5008,22 +5008,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>393871</t>
+          <t>119200</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>393871</t>
+          <t>119200</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>393871</t>
+          <t>119200</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5043,22 +5043,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>573</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>979587</t>
+          <t>231632</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>979587</t>
+          <t>231632</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>979587</t>
+          <t>231632</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5090,107 +5090,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45658</t>
+          <t>21505</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35367</t>
+          <t>15870</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>58986</t>
+          <t>27778</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>38878</t>
+          <t>32736</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30744</t>
+          <t>26269</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>48186</t>
+          <t>39701</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>124</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>84535</t>
+          <t>54242</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>71708</t>
+          <t>45215</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>99586</t>
+          <t>63557</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>31,41%</t>
         </is>
       </c>
     </row>
@@ -5203,107 +5203,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>269811</t>
+          <t>68886</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>256483</t>
+          <t>62613</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>280102</t>
+          <t>74521</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>76,21%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,3%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>195</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>250800</t>
+          <t>79232</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>241492</t>
+          <t>72267</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>258934</t>
+          <t>85699</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>70,76%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>76,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>371</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>520612</t>
+          <t>148118</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>505561</t>
+          <t>138803</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>533439</t>
+          <t>157145</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>73,2%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>83,54%</t>
+          <t>68,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>77,66%</t>
         </is>
       </c>
     </row>
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>315469</t>
+          <t>90391</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>315469</t>
+          <t>90391</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>315469</t>
+          <t>90391</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>272</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>289678</t>
+          <t>111968</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>289678</t>
+          <t>111968</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>289678</t>
+          <t>111968</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5386,22 +5386,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>495</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>605147</t>
+          <t>202360</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>605147</t>
+          <t>202360</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>605147</t>
+          <t>202360</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5433,107 +5433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12119</t>
+          <t>13176</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7344</t>
+          <t>8603</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18276</t>
+          <t>19803</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23561</t>
+          <t>14479</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6887</t>
+          <t>9904</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>51061</t>
+          <t>20407</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>35680</t>
+          <t>27655</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>14286</t>
+          <t>20975</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>59236</t>
+          <t>35870</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>23,83%</t>
         </is>
       </c>
     </row>
@@ -5546,107 +5546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>173824</t>
+          <t>53335</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>167667</t>
+          <t>46708</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>178599</t>
+          <t>57908</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>70,23%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>389793</t>
+          <t>69507</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>362293</t>
+          <t>63579</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>406467</t>
+          <t>74082</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>326</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>563616</t>
+          <t>122842</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>540060</t>
+          <t>114627</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>585010</t>
+          <t>129522</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>86,06%</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>185943</t>
+          <t>66511</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>185943</t>
+          <t>66511</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>185943</t>
+          <t>66511</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5694,22 +5694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>413354</t>
+          <t>83986</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>413354</t>
+          <t>83986</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>413354</t>
+          <t>83986</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5729,22 +5729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>395</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>599296</t>
+          <t>150497</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>599296</t>
+          <t>150497</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>599296</t>
+          <t>150497</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5776,107 +5776,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>6727</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3691</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4556</t>
+          <t>11426</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>11227</t>
+          <t>8775</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7154</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>17423</t>
+          <t>14220</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>12556</t>
+          <t>15502</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>7958</t>
+          <t>10532</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>18630</t>
+          <t>21623</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>16,21%</t>
         </is>
       </c>
     </row>
@@ -5889,107 +5889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>128646</t>
+          <t>48089</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>125419</t>
+          <t>43390</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>129975</t>
+          <t>51125</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>79,16%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>163937</t>
+          <t>69765</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>157741</t>
+          <t>64320</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>168010</t>
+          <t>73354</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>81,9%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>339</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>292583</t>
+          <t>117854</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>286509</t>
+          <t>111733</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>297181</t>
+          <t>122824</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>92,1%</t>
         </is>
       </c>
     </row>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>129975</t>
+          <t>54816</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>129975</t>
+          <t>54816</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>129975</t>
+          <t>54816</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6037,22 +6037,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>230</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>175164</t>
+          <t>78540</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>175164</t>
+          <t>78540</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>175164</t>
+          <t>78540</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6072,22 +6072,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>379</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>305139</t>
+          <t>133356</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>305139</t>
+          <t>133356</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>305139</t>
+          <t>133356</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6119,107 +6119,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>381</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>471032</t>
+          <t>169184</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>245006</t>
+          <t>152724</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>986895</t>
+          <t>186597</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>275696</t>
+          <t>161194</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>188181</t>
+          <t>144383</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>321793</t>
+          <t>178139</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>775</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>746728</t>
+          <t>330378</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>508604</t>
+          <t>309511</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1401507</t>
+          <t>354721</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>26,36%</t>
         </is>
       </c>
     </row>
@@ -6232,107 +6232,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1477877</t>
+          <t>469131</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>962014</t>
+          <t>451718</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1703903</t>
+          <t>485591</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>75,83%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>49,36%</t>
+          <t>70,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>76,07%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1790859</t>
+          <t>546288</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1744762</t>
+          <t>529343</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1878374</t>
+          <t>563099</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>77,22%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>84,43%</t>
+          <t>74,82%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3268737</t>
+          <t>1015420</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2613958</t>
+          <t>991077</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3506861</t>
+          <t>1036287</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>81,4%</t>
+          <t>75,45%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>65,1%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>77,0%</t>
         </is>
       </c>
     </row>
@@ -6345,22 +6345,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1948909</t>
+          <t>638315</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1948909</t>
+          <t>638315</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1948909</t>
+          <t>638315</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6380,22 +6380,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>1766</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2066555</t>
+          <t>707482</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2066555</t>
+          <t>707482</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2066555</t>
+          <t>707482</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6415,22 +6415,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4439</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4015465</t>
+          <t>1345798</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4015465</t>
+          <t>1345798</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4015465</t>
+          <t>1345798</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Exposición pasiva al tabaco en la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9692,107 +9692,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24318</t>
+          <t>7640</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19106</t>
+          <t>4409</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29883</t>
+          <t>12452</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22074</t>
+          <t>14551</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17584</t>
+          <t>9059</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27077</t>
+          <t>23233</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>46392</t>
+          <t>22191</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>39779</t>
+          <t>15556</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>53722</t>
+          <t>31465</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>22,36%</t>
         </is>
       </c>
     </row>
@@ -9805,107 +9805,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36880</t>
+          <t>61627</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31315</t>
+          <t>56815</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42092</t>
+          <t>64858</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,17%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>68,78%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>37294</t>
+          <t>56875</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32291</t>
+          <t>48193</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41784</t>
+          <t>62367</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,82%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>67,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>248</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>74175</t>
+          <t>118501</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>66845</t>
+          <t>109227</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>80788</t>
+          <t>125136</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>84,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>55,44%</t>
+          <t>77,64%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>67,01%</t>
+          <t>88,94%</t>
         </is>
       </c>
     </row>
@@ -9918,22 +9918,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>61198</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>61198</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>61198</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9953,22 +9953,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59368</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>59368</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>59368</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9988,22 +9988,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>295</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>120567</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>120567</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>120567</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -10035,107 +10035,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44687</t>
+          <t>12965</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36844</t>
+          <t>8160</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52212</t>
+          <t>19896</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31096</t>
+          <t>14606</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24730</t>
+          <t>9455</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38759</t>
+          <t>21571</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>75783</t>
+          <t>27571</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>65662</t>
+          <t>19997</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>87461</t>
+          <t>36504</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>20,02%</t>
         </is>
       </c>
     </row>
@@ -10148,107 +10148,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74079</t>
+          <t>78219</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66554</t>
+          <t>71288</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81922</t>
+          <t>83024</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>92833</t>
+          <t>76550</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>85170</t>
+          <t>69585</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>99199</t>
+          <t>81701</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,91%</t>
+          <t>83,98%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>68,73%</t>
+          <t>76,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>80,05%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>296</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>166912</t>
+          <t>154770</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>155234</t>
+          <t>145837</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>177033</t>
+          <t>162344</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>72,94%</t>
+          <t>89,03%</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>118766</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>118766</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>118766</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10296,22 +10296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>186</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>123929</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>123929</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>123929</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10331,22 +10331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>353</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>242695</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>242695</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>242695</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10378,107 +10378,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38883</t>
+          <t>26823</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31964</t>
+          <t>20494</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47662</t>
+          <t>34415</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27509</t>
+          <t>16011</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21613</t>
+          <t>11127</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35157</t>
+          <t>21806</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>66392</t>
+          <t>42835</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>55966</t>
+          <t>35153</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>76623</t>
+          <t>52157</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>20,48%</t>
         </is>
       </c>
     </row>
@@ -10491,107 +10491,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95317</t>
+          <t>101813</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86538</t>
+          <t>94221</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>102236</t>
+          <t>108142</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,03%</t>
+          <t>79,15%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>73,25%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,18%</t>
+          <t>84,07%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>272</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>102982</t>
+          <t>110080</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95334</t>
+          <t>104285</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>108878</t>
+          <t>114964</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>83,44%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>198299</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>188068</t>
+          <t>202570</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>208725</t>
+          <t>219574</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>74,92%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>71,05%</t>
+          <t>79,52%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>86,2%</t>
         </is>
       </c>
     </row>
@@ -10604,22 +10604,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>134200</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>134200</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>134200</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10639,22 +10639,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>130491</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>130491</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>130491</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>602</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>264691</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>264691</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>264691</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10721,107 +10721,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19887</t>
+          <t>23958</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14548</t>
+          <t>17936</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27207</t>
+          <t>30617</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24525</t>
+          <t>24723</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19142</t>
+          <t>18991</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31546</t>
+          <t>31382</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>141</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>44412</t>
+          <t>48681</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>36129</t>
+          <t>40324</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>54254</t>
+          <t>57665</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>19,08%</t>
         </is>
       </c>
     </row>
@@ -10834,107 +10834,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>92545</t>
+          <t>127466</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>85225</t>
+          <t>120807</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97884</t>
+          <t>133488</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,06%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>362</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94675</t>
+          <t>126122</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>87654</t>
+          <t>119463</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>100058</t>
+          <t>131854</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,43%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>704</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>187220</t>
+          <t>253588</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>177378</t>
+          <t>244604</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>195503</t>
+          <t>261945</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>86,66%</t>
         </is>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>112432</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>112432</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>112432</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10982,22 +10982,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>434</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119200</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119200</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119200</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11017,22 +11017,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>845</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>231632</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>231632</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>231632</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -11064,107 +11064,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21505</t>
+          <t>18715</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15870</t>
+          <t>13586</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27778</t>
+          <t>23872</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32736</t>
+          <t>15966</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26269</t>
+          <t>11932</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39701</t>
+          <t>21206</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>126</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>54242</t>
+          <t>34681</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>45215</t>
+          <t>29095</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>63557</t>
+          <t>42258</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>15,62%</t>
         </is>
       </c>
     </row>
@@ -11177,107 +11177,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>68886</t>
+          <t>111141</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62613</t>
+          <t>105984</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74521</t>
+          <t>116270</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,21%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>413</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>79232</t>
+          <t>124640</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>72267</t>
+          <t>119400</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>85699</t>
+          <t>128674</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>76,54%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>748</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>148118</t>
+          <t>235780</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>138803</t>
+          <t>228203</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>157145</t>
+          <t>241366</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>73,2%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>77,66%</t>
+          <t>89,24%</t>
         </is>
       </c>
     </row>
@@ -11290,22 +11290,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>90391</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>90391</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>90391</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11325,22 +11325,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>477</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>111968</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>111968</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>111968</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>874</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>202360</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>202360</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>202360</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11407,107 +11407,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13176</t>
+          <t>7410</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8603</t>
+          <t>5045</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19803</t>
+          <t>10508</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14479</t>
+          <t>12192</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9904</t>
+          <t>9203</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20407</t>
+          <t>17015</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>27655</t>
+          <t>19602</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20975</t>
+          <t>15216</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>35870</t>
+          <t>25025</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>12,03%</t>
         </is>
       </c>
     </row>
@@ -11520,107 +11520,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>53335</t>
+          <t>88761</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>46708</t>
+          <t>85663</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>57908</t>
+          <t>91126</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>80,19%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>69507</t>
+          <t>99569</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>63579</t>
+          <t>94746</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>74082</t>
+          <t>102558</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>705</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>122842</t>
+          <t>188330</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>114627</t>
+          <t>182907</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>129522</t>
+          <t>192716</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>92,68%</t>
         </is>
       </c>
     </row>
@@ -11633,22 +11633,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>66511</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>66511</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>66511</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11668,22 +11668,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>420</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>83986</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>83986</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>83986</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11703,22 +11703,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>785</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>150497</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>150497</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>150497</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11750,107 +11750,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3691</t>
+          <t>2507</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11426</t>
+          <t>7595</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8775</t>
+          <t>6832</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>14220</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>15502</t>
+          <t>11144</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10532</t>
+          <t>7903</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>21623</t>
+          <t>16146</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -11863,107 +11863,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>48089</t>
+          <t>75493</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>43390</t>
+          <t>72210</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>51125</t>
+          <t>77298</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>69765</t>
+          <t>121101</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>64320</t>
+          <t>117215</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>73354</t>
+          <t>123745</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>743</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>117854</t>
+          <t>196594</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>111733</t>
+          <t>191592</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>122824</t>
+          <t>199835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>96,2%</t>
         </is>
       </c>
     </row>
@@ -11976,22 +11976,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>54816</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>54816</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>54816</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>476</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>78540</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>78540</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>78540</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -12046,22 +12046,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>779</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>133356</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>133356</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>133356</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -12093,107 +12093,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>169184</t>
+          <t>101824</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>152724</t>
+          <t>87747</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>186597</t>
+          <t>116086</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>303</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>161194</t>
+          <t>104880</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>144383</t>
+          <t>91623</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>178139</t>
+          <t>120277</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>586</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>330378</t>
+          <t>206705</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>309511</t>
+          <t>188043</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>354721</t>
+          <t>226525</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>14,46%</t>
         </is>
       </c>
     </row>
@@ -12206,107 +12206,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>469131</t>
+          <t>644519</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>451718</t>
+          <t>630257</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>485591</t>
+          <t>658596</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>70,77%</t>
+          <t>84,45%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>76,07%</t>
+          <t>88,24%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>2140</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>546288</t>
+          <t>714938</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>529343</t>
+          <t>699541</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>563099</t>
+          <t>728195</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1015420</t>
+          <t>1359456</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>991077</t>
+          <t>1339636</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1036287</t>
+          <t>1378118</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>75,45%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>73,64%</t>
+          <t>85,54%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>77,0%</t>
+          <t>87,99%</t>
         </is>
       </c>
     </row>
@@ -12319,22 +12319,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>638315</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>638315</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>638315</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>707482</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>707482</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>707482</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12389,22 +12389,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1345798</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1345798</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1345798</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
